--- a/artfynd/A 46984-2025 artfynd.xlsx
+++ b/artfynd/A 46984-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5465,6 +5465,241 @@
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>131082539</v>
+      </c>
+      <c r="B47" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Glupen- nedklassad naturvårdsskog, Ög</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>571452</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6465778</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Söderköping</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Östra Ryd</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>131082526</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Glupen- nedklassad naturvårdsskog, Ög</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>571389</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6465724</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Söderköping</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Östra Ryd</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Revirparet</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
